--- a/20_second/score.xlsx
+++ b/20_second/score.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,8 +426,8 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -669,6 +669,169 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>11</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
     <row r="18" spans="12:19" x14ac:dyDescent="0.45">
       <c r="L18" s="1"/>
       <c r="N18" s="1"/>

--- a/20_second/score.xlsx
+++ b/20_second/score.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,14 @@
   </si>
   <si>
     <t>권승현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김진호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위포트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,8 +434,8 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -832,7 +840,158 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="12:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="L18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>

--- a/20_second/score.xlsx
+++ b/20_second/score.xlsx
@@ -434,8 +434,8 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="D13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -850,6 +850,24 @@
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">

--- a/20_second/score.xlsx
+++ b/20_second/score.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnh78\Desktop\gsat\20_second\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200953F7-57CC-4AC4-AF30-76D1C27AAB24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26430" windowHeight="11120"/>
+    <workbookView xWindow="5120" yWindow="260" windowWidth="14400" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="18">
   <si>
     <t>언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,7 +102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,12 +431,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="D13:K13"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1010,6 +1011,15 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1017,6 +1027,225 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>11</v>
+      </c>
+      <c r="I21">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>9</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <v>16</v>
+      </c>
+      <c r="J23">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>14</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>12</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/20_second/score.xlsx
+++ b/20_second/score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnh78\Desktop\gsat\20_second\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200953F7-57CC-4AC4-AF30-76D1C27AAB24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4803B47-D606-4A86-BD97-77462D364D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="260" windowWidth="14400" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
   <si>
     <t>언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,10 @@
   </si>
   <si>
     <t>위포트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해커스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1247,6 +1251,137 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>12</v>
+      </c>
+      <c r="I28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>11</v>
+      </c>
+      <c r="I31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>13</v>
+      </c>
+      <c r="I33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:E1"/>

--- a/20_second/score.xlsx
+++ b/20_second/score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnh78\Desktop\gsat\20_second\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4803B47-D606-4A86-BD97-77462D364D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D82177E-6634-4ECC-A718-5046FD42168F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="1240" windowWidth="14400" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="21">
   <si>
     <t>언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,14 @@
   </si>
   <si>
     <t>해커스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위포트_봉투</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,15 +444,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I41" sqref="F41:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
@@ -1295,6 +1304,18 @@
       <c r="C30">
         <v>4</v>
       </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
@@ -1337,6 +1358,9 @@
       <c r="B33" t="s">
         <v>18</v>
       </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
       <c r="F33">
         <v>3</v>
       </c>
@@ -1357,6 +1381,9 @@
       <c r="B34" t="s">
         <v>18</v>
       </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
@@ -1365,6 +1392,21 @@
       <c r="B35" t="s">
         <v>18</v>
       </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
@@ -1372,6 +1414,9 @@
       </c>
       <c r="B36" t="s">
         <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
@@ -1380,6 +1425,215 @@
       </c>
       <c r="B37" t="s">
         <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>9</v>
+      </c>
+      <c r="I38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+      <c r="I40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>8</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>12</v>
+      </c>
+      <c r="I43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>12</v>
+      </c>
+      <c r="I45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+      <c r="H46">
+        <v>11</v>
+      </c>
+      <c r="I46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>9</v>
+      </c>
+      <c r="I47">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/20_second/score.xlsx
+++ b/20_second/score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnh78\Desktop\gsat\20_second\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D82177E-6634-4ECC-A718-5046FD42168F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BA617E-BD84-4EA3-85D0-115697B6EC4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="1240" windowWidth="14400" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="660" windowWidth="14400" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="21">
   <si>
     <t>언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,11 +444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I41" sqref="F41:I41"/>
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1636,6 +1636,212 @@
         <v>9</v>
       </c>
     </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>13</v>
+      </c>
+      <c r="I48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49">
+        <v>8</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>12</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51">
+        <v>11</v>
+      </c>
+      <c r="H51">
+        <v>12</v>
+      </c>
+      <c r="I51">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+      <c r="H53">
+        <v>13</v>
+      </c>
+      <c r="I53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>8</v>
+      </c>
+      <c r="H55">
+        <v>12</v>
+      </c>
+      <c r="I55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>13</v>
+      </c>
+      <c r="I56">
+        <v>16</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:E1"/>

--- a/20_second/score.xlsx
+++ b/20_second/score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnh78\Desktop\gsat\20_second\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BA617E-BD84-4EA3-85D0-115697B6EC4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5684F1-9883-449F-8C23-311568A9F774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="660" windowWidth="14400" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="22">
   <si>
     <t>언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>위포트_봉투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에듀윌_봉투</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,11 +448,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
+      <pane ySplit="2" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1692,6 +1696,18 @@
       <c r="C50">
         <v>3</v>
       </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50">
+        <v>7</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+      <c r="I50">
+        <v>9</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
@@ -1840,6 +1856,97 @@
       </c>
       <c r="C57">
         <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>9</v>
+      </c>
+      <c r="H58">
+        <v>11</v>
+      </c>
+      <c r="I58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>7</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61">
+        <v>9</v>
+      </c>
+      <c r="H61">
+        <v>11</v>
+      </c>
+      <c r="I61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/20_second/score.xlsx
+++ b/20_second/score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnh78\Desktop\gsat\20_second\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5684F1-9883-449F-8C23-311568A9F774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D56EBE-6F94-4BAB-90ED-E4A491BABF3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="22">
   <si>
     <t>언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,11 +448,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
+      <pane ySplit="2" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1949,6 +1949,140 @@
         <v>1</v>
       </c>
     </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66">
+        <v>10</v>
+      </c>
+      <c r="H66">
+        <v>11</v>
+      </c>
+      <c r="I66">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71">
+        <v>11</v>
+      </c>
+      <c r="H71">
+        <v>10</v>
+      </c>
+      <c r="I71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:E1"/>

--- a/20_second/score.xlsx
+++ b/20_second/score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnh78\Desktop\gsat\20_second\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D56EBE-6F94-4BAB-90ED-E4A491BABF3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAFF5FC-1B8C-48A1-AC8B-6BC590AA9F96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,8 +451,8 @@
   <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
+      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1959,6 +1959,18 @@
       <c r="C63">
         <v>2</v>
       </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+      <c r="H63">
+        <v>10</v>
+      </c>
+      <c r="I63">
+        <v>14</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
@@ -2025,6 +2037,18 @@
       </c>
       <c r="C68">
         <v>3</v>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+      <c r="G68">
+        <v>8</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+      <c r="I68">
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
